--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:BK4"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,383 +422,759 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S1" t="n">
-        <v>2</v>
-      </c>
-      <c r="T1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V1" t="n">
-        <v>2</v>
-      </c>
-      <c r="W1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>2</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>روز</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>نیروی انسانی به تفکیک تخصص</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>شیفت1</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>شیفت2</t>
+        </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>جوشکار درجه 1</t>
+        </is>
+      </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
       </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
       <c r="V3" t="n">
         <v>2</v>
       </c>
-      <c r="W3" t="n">
-        <v>2</v>
-      </c>
       <c r="X3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
         <v>2</v>
       </c>
-      <c r="AA3" t="n">
-        <v>2</v>
-      </c>
       <c r="AB3" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" t="n">
-        <v>2</v>
-      </c>
       <c r="AD3" t="n">
         <v>2</v>
       </c>
-      <c r="AE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>بنای سفت کار درجه 1</t>
+        </is>
+      </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>19</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>کارگر ساده</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>سرپرست اجرایی</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>نقاش درجه 1</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>سرنجار</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>کارگر ماهر</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
